--- a/data/trans_dic/P38A-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P38A-Habitat-trans_dic.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -842,7 +842,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P38A-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P38A-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,65%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,74%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,32%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,75%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,16%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,42%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,69%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,46%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,69%</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,56</t>
+          <t>81,1; 92,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>84,59; 95,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>89,05; 98,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,92</t>
+          <t>82,94; 94,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>83,24; 94,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>85,08; 96,44</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>84,2; 92,38</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>86,09; 93,83</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>89,6; 96,58</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,64%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,19%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,23%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,67%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,42%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,37%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,15%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,81%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,37%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>84,79; 90,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>80,97; 87,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>83,62; 91,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>85,51; 91,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>86,7; 91,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>89,88; 94,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>86,24; 90,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>84,84; 88,67</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>87,99; 92,45</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,25%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,66%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,88%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,33%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,19%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,52%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,81%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,48%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,74%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>80,69; 85,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>79,92; 84,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>64,97; 83,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>86,07; 90,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>90,42; 93,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>85,37; 89,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>84,23; 87,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>85,94; 88,99</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>75,24; 85,5</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,21%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,52%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,63%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,33%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,24%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,93%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,81%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,46%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,61%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>82,19; 87,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>80,75; 86,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>79,61; 87,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>87,93; 92,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>89,08; 93,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>87,94; 94,24</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>85,83; 89,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>85,84; 89,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>85,27; 90,41</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,85%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,37%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,27%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,04%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,59%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,06%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,58%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,06%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,87%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>83,63; 88,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>80,79; 85,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>76,83; 83,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>89,22; 92,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>84,37; 88,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>80,77; 87,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>87,04; 89,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>83,35; 86,6</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>80,42; 84,94</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,31%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,58%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,67%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,83%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,48%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,53%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,78%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,43%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>84,02; 86,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>82,1; 84,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>77,45; 83,92</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>88,57; 90,61</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>88,75; 90,81</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>87,01; 89,96</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>86,67; 88,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>85,91; 87,51</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>83,45; 86,69</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P38A-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P38A-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>87,65%</t>
+          <t>87,64%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>90,74%</t>
+          <t>85,33%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>95,32%</t>
+          <t>89,67%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>89,75%</t>
+          <t>88,84%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>90,16%</t>
+          <t>89,55%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>92,42%</t>
+          <t>92,82%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>88,69%</t>
+          <t>88,24%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>90,46%</t>
+          <t>87,44%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>93,69%</t>
+          <t>91,29%</t>
         </is>
       </c>
     </row>
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>81,1; 92,76</t>
+          <t>84,72; 89,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>84,59; 95,52</t>
+          <t>82,29; 87,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>89,05; 98,76</t>
+          <t>85,41; 92,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>82,94; 94,52</t>
+          <t>86,04; 90,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>83,24; 94,83</t>
+          <t>87,16; 91,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>85,08; 96,44</t>
+          <t>90,63; 94,53</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>84,2; 92,38</t>
+          <t>86,68; 90,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>86,09; 93,83</t>
+          <t>85,58; 89,15</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>89,6; 96,58</t>
+          <t>89,02; 93,03</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>87,64%</t>
+          <t>83,25%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>84,19%</t>
+          <t>82,66%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>88,23%</t>
+          <t>65,67%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>88,67%</t>
+          <t>88,33%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>89,42%</t>
+          <t>92,19%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>92,37%</t>
+          <t>88,48%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>88,15%</t>
+          <t>85,81%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>86,81%</t>
+          <t>87,48%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>90,37%</t>
+          <t>75,83%</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>84,79; 90,22</t>
+          <t>80,69; 85,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>80,97; 87,19</t>
+          <t>79,92; 84,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>83,62; 91,53</t>
+          <t>35,86; 83,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>85,51; 91,29</t>
+          <t>86,07; 90,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>86,7; 91,82</t>
+          <t>90,42; 93,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>89,88; 94,31</t>
+          <t>86,36; 90,36</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>86,24; 90,07</t>
+          <t>84,23; 87,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>84,84; 88,67</t>
+          <t>85,94; 88,99</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>87,99; 92,45</t>
+          <t>51,48; 86,19</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>83,25%</t>
+          <t>85,21%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>82,66%</t>
+          <t>83,52%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>77,88%</t>
+          <t>83,53%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>88,33%</t>
+          <t>90,33%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>92,19%</t>
+          <t>91,24%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>87,52%</t>
+          <t>92,49%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>85,81%</t>
+          <t>87,81%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>87,48%</t>
+          <t>87,46%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>82,74%</t>
+          <t>88,63%</t>
         </is>
       </c>
     </row>
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>80,69; 85,77</t>
+          <t>82,19; 87,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>79,92; 84,84</t>
+          <t>80,75; 86,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>64,97; 83,11</t>
+          <t>79,25; 87,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>86,07; 90,23</t>
+          <t>87,93; 92,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>90,42; 93,61</t>
+          <t>89,08; 93,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>85,37; 89,6</t>
+          <t>89,42; 96,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>84,23; 87,32</t>
+          <t>85,83; 89,4</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>85,94; 88,99</t>
+          <t>85,84; 89,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>75,24; 85,5</t>
+          <t>85,97; 92,77</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>85,21%</t>
+          <t>85,85%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>83,52%</t>
+          <t>83,37%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>83,63%</t>
+          <t>80,36%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>90,33%</t>
+          <t>91,04%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>91,24%</t>
+          <t>86,59%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>90,93%</t>
+          <t>81,57%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>87,81%</t>
+          <t>88,58%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>87,46%</t>
+          <t>85,06%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>87,61%</t>
+          <t>81,02%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1015,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>82,19; 87,77</t>
+          <t>83,63; 88,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>80,75; 86,22</t>
+          <t>80,79; 85,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>79,61; 87,18</t>
+          <t>76,72; 83,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>87,93; 92,26</t>
+          <t>89,22; 92,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>89,08; 93,17</t>
+          <t>84,37; 88,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>87,94; 94,24</t>
+          <t>62,18; 87,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>85,83; 89,4</t>
+          <t>87,04; 89,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>85,84; 89,16</t>
+          <t>83,35; 86,6</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>85,27; 90,41</t>
+          <t>71,83; 84,71</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>85,85%</t>
+          <t>85,31%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>83,37%</t>
+          <t>83,58%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>80,27%</t>
+          <t>77,65%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>91,04%</t>
+          <t>89,67%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>86,59%</t>
+          <t>89,83%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>85,06%</t>
+          <t>88,23%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>88,58%</t>
+          <t>87,53%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>85,06%</t>
+          <t>86,78%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>82,87%</t>
+          <t>83,09%</t>
         </is>
       </c>
     </row>
@@ -1125,169 +1125,59 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>83,63; 88,01</t>
+          <t>84,02; 86,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>80,79; 85,81</t>
+          <t>82,1; 84,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>76,83; 83,34</t>
+          <t>59,75; 84,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>89,22; 92,73</t>
+          <t>88,57; 90,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>84,37; 88,63</t>
+          <t>88,75; 90,81</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>80,77; 87,67</t>
+          <t>82,02; 90,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>87,04; 89,94</t>
+          <t>86,67; 88,3</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>83,35; 86,6</t>
+          <t>85,91; 87,51</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>80,42; 84,94</t>
+          <t>73,0; 86,79</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>85,31%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>83,58%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>82,0%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>89,67%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>89,83%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>88,48%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>87,53%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>86,78%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>85,43%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>84,02; 86,54</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>82,1; 84,92</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>77,45; 83,92</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>88,57; 90,61</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>88,75; 90,81</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>87,01; 89,96</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>86,67; 88,3</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>85,91; 87,51</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>83,45; 86,69</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1297,7 +1187,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P38A-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P38A-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>84,72; 89,86</t>
+          <t>85,03; 89,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>82,29; 87,88</t>
+          <t>82,38; 87,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>85,41; 92,55</t>
+          <t>84,9; 92,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>86,04; 90,88</t>
+          <t>86,39; 91,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>87,16; 91,81</t>
+          <t>87,22; 91,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>90,63; 94,53</t>
+          <t>90,63; 94,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>86,68; 90,02</t>
+          <t>86,54; 89,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>85,58; 89,15</t>
+          <t>85,51; 89,26</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>89,02; 93,03</t>
+          <t>88,95; 92,93</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>80,69; 85,77</t>
+          <t>80,56; 85,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>79,92; 84,84</t>
+          <t>80,13; 85,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>35,86; 83,76</t>
+          <t>36,5; 83,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>86,07; 90,23</t>
+          <t>86,13; 90,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>90,42; 93,61</t>
+          <t>90,3; 93,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>86,36; 90,36</t>
+          <t>86,44; 90,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>84,23; 87,32</t>
+          <t>84,15; 87,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>85,94; 88,99</t>
+          <t>85,86; 89,06</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>51,48; 86,19</t>
+          <t>51,41; 86,3</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>82,19; 87,77</t>
+          <t>82,38; 87,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>80,75; 86,22</t>
+          <t>80,43; 86,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>79,25; 87,16</t>
+          <t>78,9; 86,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>87,93; 92,26</t>
+          <t>87,79; 92,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>89,08; 93,17</t>
+          <t>89,17; 93,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>89,42; 96,15</t>
+          <t>89,13; 95,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>85,83; 89,4</t>
+          <t>85,91; 89,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>85,84; 89,16</t>
+          <t>85,73; 89,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>85,97; 92,77</t>
+          <t>85,86; 92,35</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>83,63; 88,01</t>
+          <t>83,57; 87,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>80,79; 85,81</t>
+          <t>81,1; 85,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>76,72; 83,55</t>
+          <t>76,81; 83,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>89,22; 92,73</t>
+          <t>89,07; 92,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>84,37; 88,63</t>
+          <t>84,41; 88,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>62,18; 87,82</t>
+          <t>64,52; 87,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>87,04; 89,94</t>
+          <t>87,03; 89,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>83,35; 86,6</t>
+          <t>83,3; 86,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>71,83; 84,71</t>
+          <t>69,45; 84,63</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>84,02; 86,54</t>
+          <t>83,91; 86,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>82,1; 84,92</t>
+          <t>82,19; 84,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>59,75; 84,06</t>
+          <t>60,45; 84,15</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>88,57; 90,61</t>
+          <t>88,5; 90,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>88,75; 90,81</t>
+          <t>88,79; 90,81</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>82,02; 90,58</t>
+          <t>81,85; 90,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>86,67; 88,3</t>
+          <t>86,69; 88,34</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>85,91; 87,51</t>
+          <t>85,96; 87,58</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>73,0; 86,79</t>
+          <t>73,87; 86,85</t>
         </is>
       </c>
     </row>
@@ -1190,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que le han tomado la tensión alguna vez un/a profesional sanitario/a</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>556</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>678</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>574</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>592</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1173</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1158</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1148</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1851</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>613725</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>572458</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>569771</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>617511</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>600958</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>626872</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1231236</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1173416</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1196644</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>595433; 629884</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>552664; 588448</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>539493; 586825</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>600484; 634068</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>585302; 616844</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>612089; 638329</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1207546; 1255676</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1147607; 1197913</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1165917; 1218200</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>786</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>826</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>826</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>890</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1379</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1600</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1676</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>2205</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>841473</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>840040</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>783342</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>909959</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>958700</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>847716</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1751432</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1798739</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1631059</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>814229; 865254</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>814362; 865496</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>435398; 996726</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>887306; 931238</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>939043; 973787</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>828189; 865307</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1717395; 1781011</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1765352; 1831156</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1105712; 1856380</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>575</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>592</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>632</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>970</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1212</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1242</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1562</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>640644</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>626351</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>588628</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>697764</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>715383</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>863233</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1338409</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1341734</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1451862</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>619331; 660658</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>603150; 647063</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>555972; 612255</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>678082; 712384</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>699167; 731346</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>831917; 895426</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1309447; 1362599</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1315145; 1366390</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1406468; 1512664</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>769</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>775</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>854</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>821</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1404</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1675</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1596</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>2258</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>807422</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>777452</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>744797</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>953172</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>900142</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>893143</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1760594</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1677595</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1637940</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>785994; 825873</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>756317; 800557</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>711854; 776016</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>932606; 969668</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>877491; 923440</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>706452; 959729</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1729790; 1786257</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1642715; 1706469</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1404030; 1711111</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2707</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2692</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2950</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>2938</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2970</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>4926</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>5645</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>5662</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>7876</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2903265</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2816300</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2686540</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>3178406</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>3175183</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>3230964</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>6081671</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>5991483</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>5917504</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2855711; 2940312</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2769411; 2856110</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2091288; 2911284</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>3136959; 3211722</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>3138530; 3209704</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2997333; 3314381</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>6023651; 6137725</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>5934921; 6046536</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>5260639; 6184803</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>